--- a/tracking/compare/daejeon-seo-gu.xlsx
+++ b/tracking/compare/daejeon-seo-gu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\compare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DA91C0-F718-4F6D-9C3C-97B64FE72A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB64D8-B0FC-46E3-8D00-20A8F5F6D503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="156" windowWidth="23016" windowHeight="12336" xr2:uid="{64669E2F-87F9-48F0-8875-289142625025}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64669E2F-87F9-48F0-8875-289142625025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -162,12 +162,6 @@
     <t>산호</t>
   </si>
   <si>
-    <t>e편한세상두산1단지</t>
-  </si>
-  <si>
-    <t>e편한세상두산2단지</t>
-  </si>
-  <si>
     <t>갈마</t>
   </si>
   <si>
@@ -316,13 +310,29 @@
   </si>
   <si>
     <t>관저더샵2차</t>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편한세상둔산</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -347,6 +357,13 @@
       <sz val="8"/>
       <name val="G마켓 산스 Medium"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -475,9 +492,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,7 +532,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -621,7 +638,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,7 +780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -771,15 +788,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EC634F-D9AC-43A8-98B1-8CDD2490EB38}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="10.8"/>
+  <cols>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.8" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="13.8" thickBot="1">
       <c r="A2" s="3">
         <v>5763</v>
       </c>
@@ -801,7 +821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.8" thickBot="1">
       <c r="A3" s="6">
         <v>5763</v>
       </c>
@@ -812,7 +832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="13.8" thickBot="1">
       <c r="A4" s="3">
         <v>5758</v>
       </c>
@@ -823,7 +843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="13.8" thickBot="1">
       <c r="A5" s="6">
         <v>5767</v>
       </c>
@@ -834,7 +854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="13.8" thickBot="1">
       <c r="A6" s="3">
         <v>5760</v>
       </c>
@@ -845,7 +865,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="13.8" thickBot="1">
       <c r="A7" s="6">
         <v>5854</v>
       </c>
@@ -856,7 +876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="13.8" thickBot="1">
       <c r="A8" s="3">
         <v>5894</v>
       </c>
@@ -867,7 +887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="13.8" thickBot="1">
       <c r="A9" s="6">
         <v>5874</v>
       </c>
@@ -878,7 +898,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="13.8" thickBot="1">
       <c r="A10" s="3">
         <v>5874</v>
       </c>
@@ -889,7 +909,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.8" thickBot="1">
       <c r="A11" s="6">
         <v>5877</v>
       </c>
@@ -900,7 +920,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="13.8" thickBot="1">
       <c r="A12" s="3">
         <v>5877</v>
       </c>
@@ -911,7 +931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="13.8" thickBot="1">
       <c r="A13" s="6">
         <v>5866</v>
       </c>
@@ -922,7 +942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="13.8" thickBot="1">
       <c r="A14" s="3">
         <v>5866</v>
       </c>
@@ -933,7 +953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="13.8" thickBot="1">
       <c r="A15" s="6">
         <v>5847</v>
       </c>
@@ -944,7 +964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="13.8" thickBot="1">
       <c r="A16" s="3">
         <v>5847</v>
       </c>
@@ -955,7 +975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="13.8" thickBot="1">
       <c r="A17" s="6">
         <v>5899</v>
       </c>
@@ -966,7 +986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="13.8" thickBot="1">
       <c r="A18" s="3">
         <v>5899</v>
       </c>
@@ -977,7 +997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="13.8" thickBot="1">
       <c r="A19" s="6">
         <v>5886</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="13.8" thickBot="1">
       <c r="A20" s="3">
         <v>5886</v>
       </c>
@@ -999,7 +1019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="13.8" thickBot="1">
       <c r="A21" s="6">
         <v>5889</v>
       </c>
@@ -1010,7 +1030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="13.8" thickBot="1">
       <c r="A22" s="3">
         <v>5889</v>
       </c>
@@ -1021,7 +1041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="13.8" thickBot="1">
       <c r="A23" s="6">
         <v>5852</v>
       </c>
@@ -1032,7 +1052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="13.8" thickBot="1">
       <c r="A24" s="3">
         <v>5852</v>
       </c>
@@ -1043,7 +1063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="13.8" thickBot="1">
       <c r="A25" s="6">
         <v>5892</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="13.8" thickBot="1">
       <c r="A26" s="3">
         <v>9626</v>
       </c>
@@ -1065,7 +1085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="13.8" thickBot="1">
       <c r="A27" s="6">
         <v>9626</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="13.8" thickBot="1">
       <c r="A28" s="3">
         <v>5967</v>
       </c>
@@ -1087,7 +1107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="13.8" thickBot="1">
       <c r="A29" s="6">
         <v>5967</v>
       </c>
@@ -1098,7 +1118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="13.8" thickBot="1">
       <c r="A30" s="3">
         <v>5972</v>
       </c>
@@ -1109,7 +1129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="13.8" thickBot="1">
       <c r="A31" s="6">
         <v>5948</v>
       </c>
@@ -1120,7 +1140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="13.8" thickBot="1">
       <c r="A32" s="3">
         <v>5948</v>
       </c>
@@ -1131,7 +1151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="13.8" thickBot="1">
       <c r="A33" s="6">
         <v>5957</v>
       </c>
@@ -1142,7 +1162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="13.8" thickBot="1">
       <c r="A34" s="3">
         <v>5957</v>
       </c>
@@ -1153,7 +1173,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="13.8" thickBot="1">
       <c r="A35" s="6">
         <v>5974</v>
       </c>
@@ -1164,7 +1184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="13.8" thickBot="1">
       <c r="A36" s="3">
         <v>5974</v>
       </c>
@@ -1175,7 +1195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="13.8" thickBot="1">
       <c r="A37" s="6">
         <v>5800</v>
       </c>
@@ -1186,7 +1206,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="13.8" thickBot="1">
       <c r="A38" s="3">
         <v>6008</v>
       </c>
@@ -1197,7 +1217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="13.8" thickBot="1">
       <c r="A39" s="6">
         <v>6008</v>
       </c>
@@ -1208,7 +1228,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="13.8" thickBot="1">
       <c r="A40" s="3">
         <v>5803</v>
       </c>
@@ -1219,7 +1239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="13.8" thickBot="1">
       <c r="A41" s="6">
         <v>5803</v>
       </c>
@@ -1230,7 +1250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="13.8" thickBot="1">
       <c r="A42" s="3">
         <v>5803</v>
       </c>
@@ -1241,7 +1261,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="13.8" thickBot="1">
       <c r="A43" s="6">
         <v>5802</v>
       </c>
@@ -1252,7 +1272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="13.8" thickBot="1">
       <c r="A44" s="3">
         <v>5802</v>
       </c>
@@ -1263,7 +1283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="13.8" thickBot="1">
       <c r="A45" s="6">
         <v>5801</v>
       </c>
@@ -1274,7 +1294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="13.8" thickBot="1">
       <c r="A46" s="3">
         <v>5801</v>
       </c>
@@ -1285,7 +1305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="13.8" thickBot="1">
       <c r="A47" s="6">
         <v>5804</v>
       </c>
@@ -1296,7 +1316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="13.8" thickBot="1">
       <c r="A48" s="3">
         <v>5804</v>
       </c>
@@ -1307,7 +1327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="13.8" thickBot="1">
       <c r="A49" s="6">
         <v>5806</v>
       </c>
@@ -1318,7 +1338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="13.8" thickBot="1">
       <c r="A50" s="3">
         <v>24922</v>
       </c>
@@ -1329,7 +1349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="13.8" thickBot="1">
       <c r="A51" s="6">
         <v>24922</v>
       </c>
@@ -1340,7 +1360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="13.8" thickBot="1">
       <c r="A52" s="3">
         <v>5997</v>
       </c>
@@ -1351,7 +1371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="13.8" thickBot="1">
       <c r="A53" s="6">
         <v>5997</v>
       </c>
@@ -1362,7 +1382,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="13.8" thickBot="1">
       <c r="A54" s="3">
         <v>139646</v>
       </c>
@@ -1373,7 +1393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="13.8" thickBot="1">
       <c r="A55" s="6">
         <v>139646</v>
       </c>
@@ -1384,7 +1404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="13.8" thickBot="1">
       <c r="A56" s="3">
         <v>5986</v>
       </c>
@@ -1395,7 +1415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="13.8" thickBot="1">
       <c r="A57" s="6">
         <v>5962</v>
       </c>
@@ -1406,7 +1426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="13.8" thickBot="1">
       <c r="A58" s="3">
         <v>5990</v>
       </c>
@@ -1417,7 +1437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="13.8" thickBot="1">
       <c r="A59" s="6">
         <v>5990</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="13.8" thickBot="1">
       <c r="A60" s="3">
         <v>6012</v>
       </c>
@@ -1439,7 +1459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="13.8" thickBot="1">
       <c r="A61" s="6">
         <v>6012</v>
       </c>
@@ -1450,7 +1470,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="13.8" thickBot="1">
       <c r="A62" s="3">
         <v>5981</v>
       </c>
@@ -1461,7 +1481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="13.8" thickBot="1">
       <c r="A63" s="6">
         <v>5981</v>
       </c>
@@ -1472,7 +1492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="13.8" thickBot="1">
       <c r="A64" s="3">
         <v>5951</v>
       </c>
@@ -1483,7 +1503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="13.8" thickBot="1">
       <c r="A65" s="6">
         <v>5951</v>
       </c>
@@ -1494,7 +1514,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="13.8" thickBot="1">
       <c r="A66" s="3">
         <v>5792</v>
       </c>
@@ -1505,7 +1525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="13.8" thickBot="1">
       <c r="A67" s="6">
         <v>5792</v>
       </c>
@@ -1516,7 +1536,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="13.8" thickBot="1">
       <c r="A68" s="3">
         <v>5792</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="13.8" thickBot="1">
       <c r="A69" s="6">
         <v>5777</v>
       </c>
@@ -1538,7 +1558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="13.8" thickBot="1">
       <c r="A70" s="3">
         <v>5777</v>
       </c>
@@ -1549,7 +1569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="13.8" thickBot="1">
       <c r="A71" s="6">
         <v>5780</v>
       </c>
@@ -1560,7 +1580,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="13.8" thickBot="1">
       <c r="A72" s="3">
         <v>5780</v>
       </c>
@@ -1571,7 +1591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="13.8" thickBot="1">
       <c r="A73" s="6">
         <v>5793</v>
       </c>
@@ -1582,7 +1602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="13.8" thickBot="1">
       <c r="A74" s="3">
         <v>5793</v>
       </c>
@@ -1593,7 +1613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="13.8" thickBot="1">
       <c r="A75" s="6">
         <v>5783</v>
       </c>
@@ -1604,1169 +1624,1136 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="16.2" thickBot="1">
       <c r="A76" s="3">
-        <v>120178</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>45</v>
+        <v>182279</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C76" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="16.2" thickBot="1">
       <c r="A77" s="6">
-        <v>120178</v>
+        <v>182279</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C77" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="16.2" thickBot="1">
       <c r="A78" s="3">
-        <v>120178</v>
-      </c>
-      <c r="B78" s="8" t="s">
+        <v>182279</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A79" s="3">
+        <v>112370</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A80" s="6">
+        <v>112370</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A81" s="3">
+        <v>5814</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A82" s="6">
+        <v>5814</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A83" s="3">
+        <v>5814</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A84" s="6">
+        <v>5817</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A85" s="3">
+        <v>5817</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A86" s="6">
+        <v>5815</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A87" s="3">
+        <v>5812</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
-        <v>120179</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>120179</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="6">
+      <c r="C87" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A88" s="6">
+        <v>5812</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A89" s="3">
+        <v>5812</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A90" s="6">
+        <v>5755</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A91" s="3">
+        <v>5755</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A92" s="6">
+        <v>5745</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A93" s="3">
+        <v>5745</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A94" s="6">
+        <v>23920</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A95" s="3">
+        <v>23920</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A96" s="6">
+        <v>5741</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A97" s="3">
+        <v>5741</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A98" s="6">
+        <v>9138</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A99" s="3">
+        <v>9138</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A100" s="6">
+        <v>9138</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A101" s="3">
+        <v>5799</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A102" s="6">
+        <v>5799</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A103" s="3">
+        <v>5794</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A104" s="6">
+        <v>5794</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A105" s="3">
+        <v>5827</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A106" s="6">
+        <v>5827</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A107" s="3">
+        <v>5823</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
-        <v>120179</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>112370</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
-        <v>112370</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="6">
+    <row r="108" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A108" s="6">
+        <v>5823</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A109" s="3">
+        <v>5823</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A110" s="6">
+        <v>127558</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A111" s="3">
+        <v>127558</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A112" s="6">
+        <v>127558</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A113" s="3">
+        <v>5839</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A114" s="6">
+        <v>5839</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A115" s="3">
+        <v>5839</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A116" s="6">
+        <v>8906</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A117" s="3">
+        <v>8906</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A118" s="6">
+        <v>8908</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A119" s="3">
+        <v>8908</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A120" s="6">
+        <v>8908</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A121" s="3">
+        <v>19081</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A122" s="6">
+        <v>115820</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A123" s="3">
+        <v>115820</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A124" s="6">
+        <v>115820</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A125" s="3">
+        <v>8907</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>5814</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="C125" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A126" s="6">
+        <v>8907</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A127" s="3">
+        <v>8907</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A128" s="6">
+        <v>11726</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A129" s="3">
+        <v>11726</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A130" s="6">
+        <v>18923</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A131" s="3">
+        <v>13134</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A132" s="6">
+        <v>13134</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A133" s="3">
+        <v>101373</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A134" s="6">
+        <v>100580</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A135" s="3">
+        <v>103921</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A136" s="6">
+        <v>122931</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A137" s="3">
+        <v>101355</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A138" s="6">
+        <v>103962</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A139" s="3">
+        <v>103962</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A140" s="6">
+        <v>103972</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C140" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A141" s="3">
+        <v>103924</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A142" s="6">
+        <v>103924</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A143" s="3">
+        <v>103924</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A144" s="6">
+        <v>5927</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A145" s="3">
+        <v>5929</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" s="6">
         <v>49</v>
       </c>
-      <c r="C84" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
-        <v>5814</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="6">
+    </row>
+    <row r="146" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A146" s="6">
+        <v>5929</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>5814</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
-        <v>5817</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>5817</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
-        <v>5815</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>5812</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
-        <v>5812</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>5812</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
-        <v>5755</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>5755</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
-        <v>5745</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>5745</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
-        <v>23920</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>23920</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
-        <v>5741</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>5741</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
-        <v>9138</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C101" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>9138</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6">
-        <v>9138</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>5799</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C104" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
-        <v>5799</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C105" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>5794</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6">
-        <v>5794</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>5827</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
-        <v>5827</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>5823</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
-        <v>5823</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C111" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>5823</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
-        <v>127558</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C113" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>127558</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
-        <v>127558</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
-        <v>5839</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
-        <v>5839</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
-        <v>5839</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
-        <v>8906</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C119" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <v>8906</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
-        <v>8908</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>8908</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
-        <v>8908</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
-        <v>19081</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C124" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6">
-        <v>115820</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C125" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
-        <v>115820</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C126" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6">
-        <v>115820</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
-        <v>8907</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6">
-        <v>8907</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C129" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>8907</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C130" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6">
-        <v>11726</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C131" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
-        <v>11726</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C132" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="6">
-        <v>18923</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
-        <v>13134</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C134" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6">
-        <v>13134</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C135" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
-        <v>101373</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6">
-        <v>100580</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
-        <v>103921</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C138" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6">
-        <v>122931</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
-        <v>101355</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C140" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6">
-        <v>103962</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C141" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
-        <v>103962</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C142" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6">
-        <v>103972</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C143" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>103924</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C144" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6">
-        <v>103924</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C145" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
-        <v>103924</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="C146" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6">
-        <v>5927</v>
-      </c>
-      <c r="B147" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A147" s="3">
+        <v>5913</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C147" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
-        <v>5929</v>
-      </c>
-      <c r="B148" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A148" s="6">
+        <v>5932</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C148" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6">
-        <v>5929</v>
-      </c>
-      <c r="B149" s="7" t="s">
+    <row r="149" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A149" s="3">
+        <v>5932</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C149" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>5913</v>
-      </c>
-      <c r="B150" s="8" t="s">
+    <row r="150" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A150" s="6">
+        <v>18932</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C150" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A151" s="3">
+        <v>18932</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A152" s="6">
+        <v>18932</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A153" s="3">
+        <v>12716</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A154" s="6">
+        <v>9516</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A155" s="3">
+        <v>9516</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A156" s="6">
+        <v>9516</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A157" s="3">
+        <v>110608</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A158" s="6">
+        <v>110608</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C158" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="27" thickBot="1">
+      <c r="A159" s="3">
+        <v>107828</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="27" thickBot="1">
+      <c r="A160" s="6">
+        <v>107828</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A161" s="3">
+        <v>108763</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A162" s="6">
+        <v>108763</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A163" s="3">
+        <v>108763</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C163" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A164" s="6">
+        <v>108763</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A165" s="3">
+        <v>5922</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A166" s="6">
+        <v>5922</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A167" s="3">
+        <v>5909</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A168" s="6">
+        <v>9407</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A169" s="3">
+        <v>111686</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C169" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A170" s="6">
+        <v>111686</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C170" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A171" s="3">
+        <v>111290</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C171" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A172" s="6">
+        <v>111290</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A173" s="3">
+        <v>111290</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C173" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A174" s="6">
+        <v>5903</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="6">
-        <v>5932</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C151" s="6">
+      <c r="C174" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A175" s="3">
+        <v>5907</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
-        <v>5932</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C152" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
-        <v>18932</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C153" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>18932</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C154" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6">
-        <v>18932</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
-        <v>12716</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6">
-        <v>9516</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C157" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
-        <v>9516</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C158" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6">
-        <v>9516</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C159" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
-        <v>110608</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C160" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6">
-        <v>110608</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" s="6">
+    <row r="176" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A176" s="6">
+        <v>5907</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C176" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A177" s="3">
+        <v>114075</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C177" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
-        <v>107828</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C162" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6">
-        <v>107828</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C163" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
-        <v>108763</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C164" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6">
-        <v>108763</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C165" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
-        <v>108763</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C166" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6">
-        <v>108763</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C167" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
-        <v>5922</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C168" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6">
-        <v>5922</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C169" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>5909</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C170" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6">
-        <v>9407</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C171" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
-        <v>111686</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C172" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="6">
-        <v>111686</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C173" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
-        <v>111290</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C174" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="6">
-        <v>111290</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C175" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
-        <v>111290</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C176" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6">
-        <v>5903</v>
-      </c>
-      <c r="B177" s="7" t="s">
+    <row r="178" spans="1:3" ht="13.8" thickBot="1">
+      <c r="A178" s="6">
+        <v>114075</v>
+      </c>
+      <c r="B178" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C177" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
-        <v>5907</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="C178" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6">
-        <v>5907</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C179" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
-        <v>114075</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C180" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6">
-        <v>114075</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C181" s="6">
         <v>84</v>
       </c>
     </row>
